--- a/biology/Botanique/Amomum_compactum/Amomum_compactum.xlsx
+++ b/biology/Botanique/Amomum_compactum/Amomum_compactum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Cardamome en grappe (Amomum compactum), est une plante herbacée du genre Amomum de la famille des Zingiberaceae.
 </t>
@@ -508,42 +520,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En cuisine</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Amomum_compactum</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Amomum_compactum</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 sept 2011)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 sept 2011) :
 Amomum cardamomum Willd., Enum. Pl., Suppl.: 1 (1814), nom. illeg.
 Amomum kepulaga Sprague &amp; Burkill, Gard. Bull. Straits Settlem. 6: 10 (1929).</t>
         </is>
